--- a/Assets/06.Table/SpecialRequestRewardTable.xlsx
+++ b/Assets/06.Table/SpecialRequestRewardTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A68FD70A-CFDD-49AA-A5F7-998DE5422A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F590C597-084A-4196-9D51-AE290CAB1B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J24" sqref="J24"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -526,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="1">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -546,7 +546,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1">
-        <v>1057</v>
+        <v>1060</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -566,12 +566,72 @@
         <v>27</v>
       </c>
       <c r="D7" s="1">
+        <v>1519</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2019</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1057</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1">
         <v>1515</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/SpecialRequestRewardTable.xlsx
+++ b/Assets/06.Table/SpecialRequestRewardTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F590C597-084A-4196-9D51-AE290CAB1B7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA6A294-C2D9-40C4-8067-EFFE63E6EF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialRequestRewardTable" sheetId="1" r:id="rId1"/>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -586,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -606,7 +606,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="1">
-        <v>1057</v>
+        <v>1061</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -634,6 +634,15 @@
       <c r="F10">
         <v>2</v>
       </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/SpecialRequestRewardTable.xlsx
+++ b/Assets/06.Table/SpecialRequestRewardTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA6A294-C2D9-40C4-8067-EFFE63E6EF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E6393-ABB7-462F-9029-9057757A758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialRequestRewardTable" sheetId="1" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -586,7 +586,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="1">
-        <v>2022</v>
+        <v>2025</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -606,7 +606,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="1">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="1">
-        <v>1523</v>
+        <v>1528</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -636,13 +636,64 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D11" s="1"/>
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D12" s="1"/>
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1060</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D13" s="1"/>
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1519</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/SpecialRequestRewardTable.xlsx
+++ b/Assets/06.Table/SpecialRequestRewardTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385E6393-ABB7-462F-9029-9057757A758E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815F23F1-15BD-4149-8231-35F8B7796088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialRequestRewardTable" sheetId="1" r:id="rId1"/>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -640,13 +640,14 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <f>B8+1</f>
         <v>3</v>
       </c>
       <c r="C11">
         <v>9</v>
       </c>
       <c r="D11" s="1">
-        <v>2021</v>
+        <v>2028</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -660,13 +661,14 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <f t="shared" ref="B12:B25" si="0">B9+1</f>
         <v>3</v>
       </c>
       <c r="C12">
         <v>18</v>
       </c>
       <c r="D12" s="1">
-        <v>1060</v>
+        <v>1072</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -680,18 +682,271 @@
         <v>11</v>
       </c>
       <c r="B13">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C13">
         <v>27</v>
       </c>
       <c r="D13" s="1">
+        <v>1535</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1060</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1">
         <v>1519</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1060</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1519</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>18</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1060</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>27</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1519</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2021</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1060</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1519</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/SpecialRequestRewardTable.xlsx
+++ b/Assets/06.Table/SpecialRequestRewardTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815F23F1-15BD-4149-8231-35F8B7796088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6BC8E9-C17C-424B-A58A-9FCC0F44D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialRequestRewardTable" sheetId="1" r:id="rId1"/>
@@ -78,12 +78,18 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -100,11 +106,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -425,7 +434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -710,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="1">
-        <v>2021</v>
+        <v>2030</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -731,7 +740,7 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>1060</v>
+        <v>1076</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -752,7 +761,7 @@
         <v>27</v>
       </c>
       <c r="D16" s="1">
-        <v>1519</v>
+        <v>1539</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -772,7 +781,7 @@
       <c r="C17">
         <v>9</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="2">
         <v>2021</v>
       </c>
       <c r="E17">
@@ -793,7 +802,7 @@
       <c r="C18">
         <v>18</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="2">
         <v>1060</v>
       </c>
       <c r="E18">
@@ -814,7 +823,7 @@
       <c r="C19">
         <v>27</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>1519</v>
       </c>
       <c r="E19">
@@ -835,7 +844,7 @@
       <c r="C20">
         <v>9</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>2021</v>
       </c>
       <c r="E20">
@@ -856,7 +865,7 @@
       <c r="C21">
         <v>18</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>1060</v>
       </c>
       <c r="E21">
@@ -877,7 +886,7 @@
       <c r="C22">
         <v>27</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>1519</v>
       </c>
       <c r="E22">
@@ -898,7 +907,7 @@
       <c r="C23">
         <v>9</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>2021</v>
       </c>
       <c r="E23">
@@ -919,7 +928,7 @@
       <c r="C24">
         <v>18</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>1060</v>
       </c>
       <c r="E24">
@@ -940,7 +949,7 @@
       <c r="C25">
         <v>27</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="2">
         <v>1519</v>
       </c>
       <c r="E25">

--- a/Assets/06.Table/SpecialRequestRewardTable.xlsx
+++ b/Assets/06.Table/SpecialRequestRewardTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF6BC8E9-C17C-424B-A58A-9FCC0F44D3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F4A480-7FC2-426B-8D9C-E87179C6DBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -434,7 +434,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -781,8 +781,8 @@
       <c r="C17">
         <v>9</v>
       </c>
-      <c r="D17" s="2">
-        <v>2021</v>
+      <c r="D17" s="1">
+        <v>2033</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -802,8 +802,8 @@
       <c r="C18">
         <v>18</v>
       </c>
-      <c r="D18" s="2">
-        <v>1060</v>
+      <c r="D18" s="1">
+        <v>1080</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -823,8 +823,8 @@
       <c r="C19">
         <v>27</v>
       </c>
-      <c r="D19" s="2">
-        <v>1519</v>
+      <c r="D19" s="1">
+        <v>1545</v>
       </c>
       <c r="E19">
         <v>1</v>

--- a/Assets/06.Table/SpecialRequestRewardTable.xlsx
+++ b/Assets/06.Table/SpecialRequestRewardTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F4A480-7FC2-426B-8D9C-E87179C6DBFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844DA02E-4375-4019-92D9-6070954FFCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,18 +78,12 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -106,14 +100,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -430,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -670,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B25" si="0">B9+1</f>
+        <f t="shared" ref="B12:B28" si="0">B9+1</f>
         <v>3</v>
       </c>
       <c r="C12">
@@ -844,11 +835,11 @@
       <c r="C20">
         <v>9</v>
       </c>
-      <c r="D20" s="2">
-        <v>2021</v>
+      <c r="D20" s="1">
+        <v>9039</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -865,11 +856,11 @@
       <c r="C21">
         <v>18</v>
       </c>
-      <c r="D21" s="2">
-        <v>1060</v>
+      <c r="D21" s="1">
+        <v>9039</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -886,11 +877,11 @@
       <c r="C22">
         <v>27</v>
       </c>
-      <c r="D22" s="2">
-        <v>1519</v>
+      <c r="D22" s="1">
+        <v>9039</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F22">
         <v>2</v>
@@ -907,11 +898,11 @@
       <c r="C23">
         <v>9</v>
       </c>
-      <c r="D23" s="2">
-        <v>2021</v>
+      <c r="D23" s="1">
+        <v>9039</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -928,11 +919,11 @@
       <c r="C24">
         <v>18</v>
       </c>
-      <c r="D24" s="2">
-        <v>1060</v>
+      <c r="D24" s="1">
+        <v>9039</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -949,13 +940,76 @@
       <c r="C25">
         <v>27</v>
       </c>
-      <c r="D25" s="2">
-        <v>1519</v>
+      <c r="D25" s="1">
+        <v>9039</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28">
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/SpecialRequestRewardTable.xlsx
+++ b/Assets/06.Table/SpecialRequestRewardTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844DA02E-4375-4019-92D9-6070954FFCAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827A4B0B-9CB1-483C-ADC9-5AEF69471566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialRequestRewardTable" sheetId="1" r:id="rId1"/>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G24" sqref="G24"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B28" si="0">B9+1</f>
+        <f t="shared" ref="B12:B40" si="0">B9+1</f>
         <v>3</v>
       </c>
       <c r="C12">
@@ -959,15 +959,18 @@
         <v>8</v>
       </c>
       <c r="C26">
+        <f>C23</f>
         <v>9</v>
       </c>
       <c r="D26" s="1">
         <v>9039</v>
       </c>
       <c r="E26">
+        <f>E23</f>
         <v>10</v>
       </c>
       <c r="F26">
+        <f>F23</f>
         <v>0</v>
       </c>
     </row>
@@ -980,15 +983,18 @@
         <v>8</v>
       </c>
       <c r="C27">
+        <f t="shared" ref="C27:C40" si="1">C24</f>
         <v>18</v>
       </c>
       <c r="D27" s="1">
         <v>9039</v>
       </c>
       <c r="E27">
+        <f t="shared" ref="E27:F40" si="2">E24</f>
         <v>20</v>
       </c>
       <c r="F27">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
@@ -1001,15 +1007,306 @@
         <v>8</v>
       </c>
       <c r="C28">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="D28" s="1">
         <v>9039</v>
       </c>
       <c r="E28">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="F28">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D30" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D31" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D32" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D33" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D35" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D36" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D37" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D38" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D39" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D40" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/SpecialRequestRewardTable.xlsx
+++ b/Assets/06.Table/SpecialRequestRewardTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827A4B0B-9CB1-483C-ADC9-5AEF69471566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D535B4BF-9DE8-402D-B2C9-153FFEB9DBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialRequestRewardTable" sheetId="1" r:id="rId1"/>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B40" si="0">B9+1</f>
+        <f t="shared" ref="B12:B52" si="0">B9+1</f>
         <v>3</v>
       </c>
       <c r="C12">
@@ -983,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C40" si="1">C24</f>
+        <f t="shared" ref="C27:C52" si="1">C24</f>
         <v>18</v>
       </c>
       <c r="D27" s="1">
@@ -1307,6 +1307,294 @@
       </c>
       <c r="F40">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D41" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ref="E41:F41" si="3">E38</f>
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D42" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ref="E42:F42" si="4">E39</f>
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D43" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:F43" si="5">E40</f>
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ref="E44:F44" si="6">E41</f>
+        <v>10</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D45" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ref="E45:F45" si="7">E42</f>
+        <v>20</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D46" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ref="E46:F46" si="8">E43</f>
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D47" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ref="E47:F47" si="9">E44</f>
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D48" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:F48" si="10">E45</f>
+        <v>20</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D49" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ref="E49:F49" si="11">E46</f>
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D50" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50:F50" si="12">E47</f>
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D51" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ref="E51:F51" si="13">E48</f>
+        <v>20</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ref="E52:F52" si="14">E49</f>
+        <v>30</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/SpecialRequestRewardTable.xlsx
+++ b/Assets/06.Table/SpecialRequestRewardTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D535B4BF-9DE8-402D-B2C9-153FFEB9DBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7889FFC6-9BA2-4CAE-937B-15DD30D83E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SpecialRequestRewardTable" sheetId="1" r:id="rId1"/>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
+      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B52" si="0">B9+1</f>
+        <f t="shared" ref="B12:B58" si="0">B9+1</f>
         <v>3</v>
       </c>
       <c r="C12">
@@ -983,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C52" si="1">C24</f>
+        <f t="shared" ref="C27:C58" si="1">C24</f>
         <v>18</v>
       </c>
       <c r="D27" s="1">
@@ -1595,6 +1595,150 @@
       </c>
       <c r="F52">
         <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D53" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:F53" si="15">E50</f>
+        <v>10</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D54" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:F54" si="16">E51</f>
+        <v>20</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D55" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ref="E55:F55" si="17">E52</f>
+        <v>30</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="17"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D56" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56:F56" si="18">E53</f>
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D57" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57:F57" si="19">E54</f>
+        <v>20</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D58" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ref="E58:F58" si="20">E55</f>
+        <v>30</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="20"/>
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/SpecialRequestRewardTable.xlsx
+++ b/Assets/06.Table/SpecialRequestRewardTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7889FFC6-9BA2-4CAE-937B-15DD30D83E4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C519FB27-45FE-48E6-A12A-4F3425AF42D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J54" sqref="J54"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B58" si="0">B9+1</f>
+        <f t="shared" ref="B12:B67" si="0">B9+1</f>
         <v>3</v>
       </c>
       <c r="C12">
@@ -983,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C58" si="1">C24</f>
+        <f t="shared" ref="C27:C67" si="1">C24</f>
         <v>18</v>
       </c>
       <c r="D27" s="1">
@@ -1739,6 +1739,222 @@
       </c>
       <c r="F58">
         <f t="shared" si="20"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D59" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ref="E59:F59" si="21">E56</f>
+        <v>10</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D60" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ref="E60:F60" si="22">E57</f>
+        <v>20</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D61" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ref="E61:F61" si="23">E58</f>
+        <v>30</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D62" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ref="E62:F62" si="24">E59</f>
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D63" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ref="E63:F63" si="25">E60</f>
+        <v>20</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D64" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ref="E64:F64" si="26">E61</f>
+        <v>30</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D65" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ref="E65:F65" si="27">E62</f>
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D66" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:F66" si="28">E63</f>
+        <v>20</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D67" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ref="E67:F67" si="29">E64</f>
+        <v>30</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="29"/>
         <v>2</v>
       </c>
     </row>

--- a/Assets/06.Table/SpecialRequestRewardTable.xlsx
+++ b/Assets/06.Table/SpecialRequestRewardTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C519FB27-45FE-48E6-A12A-4F3425AF42D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8E2C6E-39E9-4FFD-98B9-891581A7CDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,11 +421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F370"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I58" sqref="I58"/>
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E380" sqref="E380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B67" si="0">B9+1</f>
+        <f t="shared" ref="B12:B75" si="0">B9+1</f>
         <v>3</v>
       </c>
       <c r="C12">
@@ -983,7 +983,7 @@
         <v>8</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:C67" si="1">C24</f>
+        <f t="shared" ref="C27:C90" si="1">C24</f>
         <v>18</v>
       </c>
       <c r="D27" s="1">
@@ -1955,6 +1955,7278 @@
       </c>
       <c r="F67">
         <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D68" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ref="E68:F68" si="30">E65</f>
+        <v>10</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D69" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ref="E69:F69" si="31">E66</f>
+        <v>20</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D70" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ref="E70:F70" si="32">E67</f>
+        <v>30</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="32"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D71" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71:F71" si="33">E68</f>
+        <v>10</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D72" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ref="E72:F72" si="34">E69</f>
+        <v>20</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D73" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ref="E73:F73" si="35">E70</f>
+        <v>30</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="35"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D74" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ref="E74:F74" si="36">E71</f>
+        <v>10</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D75" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ref="E75:F75" si="37">E72</f>
+        <v>20</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ref="B76:B139" si="38">B73+1</f>
+        <v>24</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D76" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ref="E76:F76" si="39">E73</f>
+        <v>30</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="39"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="38"/>
+        <v>25</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D77" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ref="E77:F77" si="40">E74</f>
+        <v>10</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="38"/>
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D78" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ref="E78:F78" si="41">E75</f>
+        <v>20</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="38"/>
+        <v>25</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D79" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ref="E79:F79" si="42">E76</f>
+        <v>30</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="38"/>
+        <v>26</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D80" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ref="E80:F80" si="43">E77</f>
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="38"/>
+        <v>26</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D81" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ref="E81:F81" si="44">E78</f>
+        <v>20</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="44"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="38"/>
+        <v>26</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D82" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ref="E82:F82" si="45">E79</f>
+        <v>30</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="45"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="38"/>
+        <v>27</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D83" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83:F83" si="46">E80</f>
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="38"/>
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D84" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ref="E84:F84" si="47">E81</f>
+        <v>20</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="47"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="38"/>
+        <v>27</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D85" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ref="E85:F85" si="48">E82</f>
+        <v>30</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="48"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="38"/>
+        <v>28</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D86" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ref="E86:F86" si="49">E83</f>
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="49"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="38"/>
+        <v>28</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D87" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ref="E87:F87" si="50">E84</f>
+        <v>20</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="50"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="38"/>
+        <v>28</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="D88" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ref="E88:F88" si="51">E85</f>
+        <v>30</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="51"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="38"/>
+        <v>29</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D89" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ref="E89:F89" si="52">E86</f>
+        <v>10</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="38"/>
+        <v>29</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D90" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ref="E90:F90" si="53">E87</f>
+        <v>20</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="53"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="38"/>
+        <v>29</v>
+      </c>
+      <c r="C91">
+        <f t="shared" ref="C91:C154" si="54">C88</f>
+        <v>27</v>
+      </c>
+      <c r="D91" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ref="E91:F91" si="55">E88</f>
+        <v>30</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="55"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="38"/>
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D92" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ref="E92:F92" si="56">E89</f>
+        <v>10</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="38"/>
+        <v>30</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D93" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ref="E93:F93" si="57">E90</f>
+        <v>20</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="57"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="38"/>
+        <v>30</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D94" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ref="E94:F94" si="58">E91</f>
+        <v>30</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="58"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="38"/>
+        <v>31</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D95" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ref="E95:F95" si="59">E92</f>
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="38"/>
+        <v>31</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D96" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ref="E96:F96" si="60">E93</f>
+        <v>20</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="60"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="38"/>
+        <v>31</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D97" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ref="E97:F97" si="61">E94</f>
+        <v>30</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="38"/>
+        <v>32</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D98" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ref="E98:F98" si="62">E95</f>
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="62"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="38"/>
+        <v>32</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D99" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ref="E99:F99" si="63">E96</f>
+        <v>20</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="63"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="38"/>
+        <v>32</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D100" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ref="E100:F100" si="64">E97</f>
+        <v>30</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="64"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="38"/>
+        <v>33</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D101" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ref="E101:F101" si="65">E98</f>
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="65"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="38"/>
+        <v>33</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D102" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E102">
+        <f t="shared" ref="E102:F102" si="66">E99</f>
+        <v>20</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="66"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="38"/>
+        <v>33</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D103" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E103">
+        <f t="shared" ref="E103:F103" si="67">E100</f>
+        <v>30</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="67"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="38"/>
+        <v>34</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D104" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E104">
+        <f t="shared" ref="E104:F104" si="68">E101</f>
+        <v>10</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="38"/>
+        <v>34</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D105" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E105">
+        <f t="shared" ref="E105:F105" si="69">E102</f>
+        <v>20</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="38"/>
+        <v>34</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D106" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E106">
+        <f t="shared" ref="E106:F106" si="70">E103</f>
+        <v>30</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="70"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="38"/>
+        <v>35</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D107" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E107">
+        <f t="shared" ref="E107:F107" si="71">E104</f>
+        <v>10</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="38"/>
+        <v>35</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D108" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E108">
+        <f t="shared" ref="E108:F108" si="72">E105</f>
+        <v>20</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="72"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="38"/>
+        <v>35</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D109" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E109">
+        <f t="shared" ref="E109:F109" si="73">E106</f>
+        <v>30</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="73"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="38"/>
+        <v>36</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D110" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E110">
+        <f t="shared" ref="E110:F110" si="74">E107</f>
+        <v>10</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="74"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="38"/>
+        <v>36</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D111" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E111">
+        <f t="shared" ref="E111:F111" si="75">E108</f>
+        <v>20</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <f t="shared" si="38"/>
+        <v>36</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D112" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E112">
+        <f t="shared" ref="E112:F112" si="76">E109</f>
+        <v>30</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="76"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <f t="shared" si="38"/>
+        <v>37</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D113" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E113">
+        <f t="shared" ref="E113:F113" si="77">E110</f>
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <f t="shared" si="38"/>
+        <v>37</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D114" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E114">
+        <f t="shared" ref="E114:F114" si="78">E111</f>
+        <v>20</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="78"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <f t="shared" si="38"/>
+        <v>37</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D115" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E115">
+        <f t="shared" ref="E115:F115" si="79">E112</f>
+        <v>30</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="79"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <f t="shared" si="38"/>
+        <v>38</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D116" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E116">
+        <f t="shared" ref="E116:F116" si="80">E113</f>
+        <v>10</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <f t="shared" si="38"/>
+        <v>38</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D117" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E117">
+        <f t="shared" ref="E117:F117" si="81">E114</f>
+        <v>20</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <f t="shared" si="38"/>
+        <v>38</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D118" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E118">
+        <f t="shared" ref="E118:F118" si="82">E115</f>
+        <v>30</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="82"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <f t="shared" si="38"/>
+        <v>39</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D119" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E119">
+        <f t="shared" ref="E119:F119" si="83">E116</f>
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="83"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <f t="shared" si="38"/>
+        <v>39</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D120" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E120">
+        <f t="shared" ref="E120:F120" si="84">E117</f>
+        <v>20</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="84"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="38"/>
+        <v>39</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D121" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E121">
+        <f t="shared" ref="E121:F121" si="85">E118</f>
+        <v>30</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="85"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="38"/>
+        <v>40</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D122" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E122">
+        <f t="shared" ref="E122:F122" si="86">E119</f>
+        <v>10</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="86"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="38"/>
+        <v>40</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D123" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E123">
+        <f t="shared" ref="E123:F123" si="87">E120</f>
+        <v>20</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="87"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="38"/>
+        <v>40</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D124" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E124">
+        <f t="shared" ref="E124:F124" si="88">E121</f>
+        <v>30</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="88"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="38"/>
+        <v>41</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D125" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E125">
+        <f t="shared" ref="E125:F125" si="89">E122</f>
+        <v>10</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="38"/>
+        <v>41</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D126" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E126">
+        <f t="shared" ref="E126:F126" si="90">E123</f>
+        <v>20</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="90"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="38"/>
+        <v>41</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D127" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E127">
+        <f t="shared" ref="E127:F127" si="91">E124</f>
+        <v>30</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="91"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="38"/>
+        <v>42</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D128" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E128">
+        <f t="shared" ref="E128:F128" si="92">E125</f>
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="92"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="38"/>
+        <v>42</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D129" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E129">
+        <f t="shared" ref="E129:F129" si="93">E126</f>
+        <v>20</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="93"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="38"/>
+        <v>42</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D130" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E130">
+        <f t="shared" ref="E130:F130" si="94">E127</f>
+        <v>30</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="94"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="38"/>
+        <v>43</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D131" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E131">
+        <f t="shared" ref="E131:F131" si="95">E128</f>
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="95"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="38"/>
+        <v>43</v>
+      </c>
+      <c r="C132">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D132" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E132">
+        <f t="shared" ref="E132:F132" si="96">E129</f>
+        <v>20</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="96"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="38"/>
+        <v>43</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D133" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E133">
+        <f t="shared" ref="E133:F133" si="97">E130</f>
+        <v>30</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="97"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="38"/>
+        <v>44</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D134" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E134">
+        <f t="shared" ref="E134:F134" si="98">E131</f>
+        <v>10</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="98"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="38"/>
+        <v>44</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D135" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E135">
+        <f t="shared" ref="E135:F135" si="99">E132</f>
+        <v>20</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="99"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="38"/>
+        <v>44</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D136" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E136">
+        <f t="shared" ref="E136:F136" si="100">E133</f>
+        <v>30</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="100"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="38"/>
+        <v>45</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D137" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E137">
+        <f t="shared" ref="E137:F137" si="101">E134</f>
+        <v>10</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="101"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="38"/>
+        <v>45</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D138" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E138">
+        <f t="shared" ref="E138:F138" si="102">E135</f>
+        <v>20</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="102"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="38"/>
+        <v>45</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D139" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E139">
+        <f t="shared" ref="E139:F139" si="103">E136</f>
+        <v>30</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="103"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <f t="shared" ref="B140:B203" si="104">B137+1</f>
+        <v>46</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D140" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E140">
+        <f t="shared" ref="E140:F140" si="105">E137</f>
+        <v>10</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="105"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="104"/>
+        <v>46</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D141" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E141">
+        <f t="shared" ref="E141:F141" si="106">E138</f>
+        <v>20</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="106"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="104"/>
+        <v>46</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D142" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E142">
+        <f t="shared" ref="E142:F142" si="107">E139</f>
+        <v>30</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="107"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="104"/>
+        <v>47</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D143" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E143">
+        <f t="shared" ref="E143:F143" si="108">E140</f>
+        <v>10</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="108"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="104"/>
+        <v>47</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D144" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E144">
+        <f t="shared" ref="E144:F144" si="109">E141</f>
+        <v>20</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="109"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="104"/>
+        <v>47</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D145" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E145">
+        <f t="shared" ref="E145:F145" si="110">E142</f>
+        <v>30</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="110"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="104"/>
+        <v>48</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D146" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E146">
+        <f t="shared" ref="E146:F146" si="111">E143</f>
+        <v>10</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="111"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="104"/>
+        <v>48</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D147" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E147">
+        <f t="shared" ref="E147:F147" si="112">E144</f>
+        <v>20</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="112"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="104"/>
+        <v>48</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D148" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E148">
+        <f t="shared" ref="E148:F148" si="113">E145</f>
+        <v>30</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="113"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="104"/>
+        <v>49</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D149" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E149">
+        <f t="shared" ref="E149:F149" si="114">E146</f>
+        <v>10</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="114"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="104"/>
+        <v>49</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D150" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E150">
+        <f t="shared" ref="E150:F150" si="115">E147</f>
+        <v>20</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="115"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="104"/>
+        <v>49</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D151" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E151">
+        <f t="shared" ref="E151:F151" si="116">E148</f>
+        <v>30</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="116"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="104"/>
+        <v>50</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="54"/>
+        <v>9</v>
+      </c>
+      <c r="D152" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E152">
+        <f t="shared" ref="E152:F152" si="117">E149</f>
+        <v>10</v>
+      </c>
+      <c r="F152">
+        <f t="shared" si="117"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="104"/>
+        <v>50</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="54"/>
+        <v>18</v>
+      </c>
+      <c r="D153" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E153">
+        <f t="shared" ref="E153:F153" si="118">E150</f>
+        <v>20</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="118"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <f t="shared" si="104"/>
+        <v>50</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="54"/>
+        <v>27</v>
+      </c>
+      <c r="D154" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E154">
+        <f t="shared" ref="E154:F154" si="119">E151</f>
+        <v>30</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="119"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="104"/>
+        <v>51</v>
+      </c>
+      <c r="C155">
+        <f t="shared" ref="C155:C218" si="120">C152</f>
+        <v>9</v>
+      </c>
+      <c r="D155" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E155">
+        <f t="shared" ref="E155:F155" si="121">E152</f>
+        <v>10</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="121"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="104"/>
+        <v>51</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D156" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E156">
+        <f t="shared" ref="E156:F156" si="122">E153</f>
+        <v>20</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="122"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="104"/>
+        <v>51</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D157" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E157">
+        <f t="shared" ref="E157:F157" si="123">E154</f>
+        <v>30</v>
+      </c>
+      <c r="F157">
+        <f t="shared" si="123"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="104"/>
+        <v>52</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D158" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E158">
+        <f t="shared" ref="E158:F158" si="124">E155</f>
+        <v>10</v>
+      </c>
+      <c r="F158">
+        <f t="shared" si="124"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="104"/>
+        <v>52</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D159" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E159">
+        <f t="shared" ref="E159:F159" si="125">E156</f>
+        <v>20</v>
+      </c>
+      <c r="F159">
+        <f t="shared" si="125"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="104"/>
+        <v>52</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D160" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E160">
+        <f t="shared" ref="E160:F160" si="126">E157</f>
+        <v>30</v>
+      </c>
+      <c r="F160">
+        <f t="shared" si="126"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="104"/>
+        <v>53</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D161" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E161">
+        <f t="shared" ref="E161:F161" si="127">E158</f>
+        <v>10</v>
+      </c>
+      <c r="F161">
+        <f t="shared" si="127"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="104"/>
+        <v>53</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D162" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E162">
+        <f t="shared" ref="E162:F162" si="128">E159</f>
+        <v>20</v>
+      </c>
+      <c r="F162">
+        <f t="shared" si="128"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="104"/>
+        <v>53</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D163" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E163">
+        <f t="shared" ref="E163:F163" si="129">E160</f>
+        <v>30</v>
+      </c>
+      <c r="F163">
+        <f t="shared" si="129"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="104"/>
+        <v>54</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D164" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E164">
+        <f t="shared" ref="E164:F164" si="130">E161</f>
+        <v>10</v>
+      </c>
+      <c r="F164">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="104"/>
+        <v>54</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D165" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E165">
+        <f t="shared" ref="E165:F165" si="131">E162</f>
+        <v>20</v>
+      </c>
+      <c r="F165">
+        <f t="shared" si="131"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="104"/>
+        <v>54</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D166" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E166">
+        <f t="shared" ref="E166:F166" si="132">E163</f>
+        <v>30</v>
+      </c>
+      <c r="F166">
+        <f t="shared" si="132"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="104"/>
+        <v>55</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D167" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E167">
+        <f t="shared" ref="E167:F167" si="133">E164</f>
+        <v>10</v>
+      </c>
+      <c r="F167">
+        <f t="shared" si="133"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="104"/>
+        <v>55</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D168" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E168">
+        <f t="shared" ref="E168:F168" si="134">E165</f>
+        <v>20</v>
+      </c>
+      <c r="F168">
+        <f t="shared" si="134"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="104"/>
+        <v>55</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D169" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E169">
+        <f t="shared" ref="E169:F169" si="135">E166</f>
+        <v>30</v>
+      </c>
+      <c r="F169">
+        <f t="shared" si="135"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="104"/>
+        <v>56</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D170" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E170">
+        <f t="shared" ref="E170:F170" si="136">E167</f>
+        <v>10</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="136"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="104"/>
+        <v>56</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D171" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E171">
+        <f t="shared" ref="E171:F171" si="137">E168</f>
+        <v>20</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="137"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="104"/>
+        <v>56</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D172" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E172">
+        <f t="shared" ref="E172:F172" si="138">E169</f>
+        <v>30</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="138"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="104"/>
+        <v>57</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D173" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E173">
+        <f t="shared" ref="E173:F173" si="139">E170</f>
+        <v>10</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="139"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="104"/>
+        <v>57</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D174" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E174">
+        <f t="shared" ref="E174:F174" si="140">E171</f>
+        <v>20</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="140"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="104"/>
+        <v>57</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D175" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E175">
+        <f t="shared" ref="E175:F175" si="141">E172</f>
+        <v>30</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="141"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="104"/>
+        <v>58</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D176" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E176">
+        <f t="shared" ref="E176:F176" si="142">E173</f>
+        <v>10</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="104"/>
+        <v>58</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D177" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E177">
+        <f t="shared" ref="E177:F177" si="143">E174</f>
+        <v>20</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="143"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="104"/>
+        <v>58</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D178" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E178">
+        <f t="shared" ref="E178:F178" si="144">E175</f>
+        <v>30</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="144"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="104"/>
+        <v>59</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D179" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E179">
+        <f t="shared" ref="E179:F179" si="145">E176</f>
+        <v>10</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="145"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="104"/>
+        <v>59</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D180" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E180">
+        <f t="shared" ref="E180:F180" si="146">E177</f>
+        <v>20</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="146"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="104"/>
+        <v>59</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D181" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E181">
+        <f t="shared" ref="E181:F181" si="147">E178</f>
+        <v>30</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="147"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="104"/>
+        <v>60</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D182" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E182">
+        <f t="shared" ref="E182:F182" si="148">E179</f>
+        <v>10</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="148"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="104"/>
+        <v>60</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D183" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E183">
+        <f t="shared" ref="E183:F183" si="149">E180</f>
+        <v>20</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="149"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <f t="shared" si="104"/>
+        <v>60</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D184" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E184">
+        <f t="shared" ref="E184:F184" si="150">E181</f>
+        <v>30</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="150"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <f t="shared" si="104"/>
+        <v>61</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D185" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E185">
+        <f t="shared" ref="E185:F185" si="151">E182</f>
+        <v>10</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="151"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <f t="shared" si="104"/>
+        <v>61</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D186" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E186">
+        <f t="shared" ref="E186:F186" si="152">E183</f>
+        <v>20</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="152"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <f t="shared" si="104"/>
+        <v>61</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D187" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E187">
+        <f t="shared" ref="E187:F187" si="153">E184</f>
+        <v>30</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="153"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <f t="shared" si="104"/>
+        <v>62</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D188" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E188">
+        <f t="shared" ref="E188:F188" si="154">E185</f>
+        <v>10</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="154"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <f t="shared" si="104"/>
+        <v>62</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D189" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E189">
+        <f t="shared" ref="E189:F189" si="155">E186</f>
+        <v>20</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="155"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <f t="shared" si="104"/>
+        <v>62</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D190" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E190">
+        <f t="shared" ref="E190:F190" si="156">E187</f>
+        <v>30</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="156"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <f t="shared" si="104"/>
+        <v>63</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D191" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E191">
+        <f t="shared" ref="E191:F191" si="157">E188</f>
+        <v>10</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="157"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <f t="shared" si="104"/>
+        <v>63</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D192" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E192">
+        <f t="shared" ref="E192:F192" si="158">E189</f>
+        <v>20</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="158"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="104"/>
+        <v>63</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D193" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E193">
+        <f t="shared" ref="E193:F193" si="159">E190</f>
+        <v>30</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="159"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="104"/>
+        <v>64</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D194" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E194">
+        <f t="shared" ref="E194:F194" si="160">E191</f>
+        <v>10</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="160"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="104"/>
+        <v>64</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D195" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E195">
+        <f t="shared" ref="E195:F195" si="161">E192</f>
+        <v>20</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="161"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="104"/>
+        <v>64</v>
+      </c>
+      <c r="C196">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D196" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E196">
+        <f t="shared" ref="E196:F196" si="162">E193</f>
+        <v>30</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="162"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="104"/>
+        <v>65</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D197" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E197">
+        <f t="shared" ref="E197:F197" si="163">E194</f>
+        <v>10</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="104"/>
+        <v>65</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D198" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E198">
+        <f t="shared" ref="E198:F198" si="164">E195</f>
+        <v>20</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="164"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="104"/>
+        <v>65</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D199" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E199">
+        <f t="shared" ref="E199:F199" si="165">E196</f>
+        <v>30</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="165"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="104"/>
+        <v>66</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D200" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E200">
+        <f t="shared" ref="E200:F200" si="166">E197</f>
+        <v>10</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="166"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="104"/>
+        <v>66</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D201" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E201">
+        <f t="shared" ref="E201:F201" si="167">E198</f>
+        <v>20</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="167"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="104"/>
+        <v>66</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D202" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E202">
+        <f t="shared" ref="E202:F202" si="168">E199</f>
+        <v>30</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="168"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="104"/>
+        <v>67</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D203" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E203">
+        <f t="shared" ref="E203:F203" si="169">E200</f>
+        <v>10</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="169"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <f t="shared" ref="B204:B267" si="170">B201+1</f>
+        <v>67</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D204" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E204">
+        <f t="shared" ref="E204:F204" si="171">E201</f>
+        <v>20</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="171"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="170"/>
+        <v>67</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D205" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E205">
+        <f t="shared" ref="E205:F205" si="172">E202</f>
+        <v>30</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="172"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="170"/>
+        <v>68</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D206" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E206">
+        <f t="shared" ref="E206:F206" si="173">E203</f>
+        <v>10</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="173"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="170"/>
+        <v>68</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D207" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E207">
+        <f t="shared" ref="E207:F207" si="174">E204</f>
+        <v>20</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="174"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="170"/>
+        <v>68</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D208" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E208">
+        <f t="shared" ref="E208:F208" si="175">E205</f>
+        <v>30</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="175"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="170"/>
+        <v>69</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D209" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E209">
+        <f t="shared" ref="E209:F209" si="176">E206</f>
+        <v>10</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="176"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="170"/>
+        <v>69</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D210" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E210">
+        <f t="shared" ref="E210:F210" si="177">E207</f>
+        <v>20</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="177"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="170"/>
+        <v>69</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D211" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E211">
+        <f t="shared" ref="E211:F211" si="178">E208</f>
+        <v>30</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="178"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="170"/>
+        <v>70</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D212" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E212">
+        <f t="shared" ref="E212:F212" si="179">E209</f>
+        <v>10</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="179"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="170"/>
+        <v>70</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D213" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E213">
+        <f t="shared" ref="E213:F213" si="180">E210</f>
+        <v>20</v>
+      </c>
+      <c r="F213">
+        <f t="shared" si="180"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="170"/>
+        <v>70</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D214" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E214">
+        <f t="shared" ref="E214:F214" si="181">E211</f>
+        <v>30</v>
+      </c>
+      <c r="F214">
+        <f t="shared" si="181"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="170"/>
+        <v>71</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D215" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E215">
+        <f t="shared" ref="E215:F215" si="182">E212</f>
+        <v>10</v>
+      </c>
+      <c r="F215">
+        <f t="shared" si="182"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="170"/>
+        <v>71</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="120"/>
+        <v>18</v>
+      </c>
+      <c r="D216" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E216">
+        <f t="shared" ref="E216:F216" si="183">E213</f>
+        <v>20</v>
+      </c>
+      <c r="F216">
+        <f t="shared" si="183"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="170"/>
+        <v>71</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="120"/>
+        <v>27</v>
+      </c>
+      <c r="D217" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E217">
+        <f t="shared" ref="E217:F217" si="184">E214</f>
+        <v>30</v>
+      </c>
+      <c r="F217">
+        <f t="shared" si="184"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <f t="shared" si="170"/>
+        <v>72</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="120"/>
+        <v>9</v>
+      </c>
+      <c r="D218" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E218">
+        <f t="shared" ref="E218:F218" si="185">E215</f>
+        <v>10</v>
+      </c>
+      <c r="F218">
+        <f t="shared" si="185"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="170"/>
+        <v>72</v>
+      </c>
+      <c r="C219">
+        <f t="shared" ref="C219:C282" si="186">C216</f>
+        <v>18</v>
+      </c>
+      <c r="D219" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E219">
+        <f t="shared" ref="E219:F219" si="187">E216</f>
+        <v>20</v>
+      </c>
+      <c r="F219">
+        <f t="shared" si="187"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="170"/>
+        <v>72</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D220" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E220">
+        <f t="shared" ref="E220:F220" si="188">E217</f>
+        <v>30</v>
+      </c>
+      <c r="F220">
+        <f t="shared" si="188"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="170"/>
+        <v>73</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D221" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E221">
+        <f t="shared" ref="E221:F221" si="189">E218</f>
+        <v>10</v>
+      </c>
+      <c r="F221">
+        <f t="shared" si="189"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="170"/>
+        <v>73</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D222" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E222">
+        <f t="shared" ref="E222:F222" si="190">E219</f>
+        <v>20</v>
+      </c>
+      <c r="F222">
+        <f t="shared" si="190"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="170"/>
+        <v>73</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D223" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E223">
+        <f t="shared" ref="E223:F223" si="191">E220</f>
+        <v>30</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="191"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="170"/>
+        <v>74</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D224" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E224">
+        <f t="shared" ref="E224:F224" si="192">E221</f>
+        <v>10</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="192"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="170"/>
+        <v>74</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D225" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E225">
+        <f t="shared" ref="E225:F225" si="193">E222</f>
+        <v>20</v>
+      </c>
+      <c r="F225">
+        <f t="shared" si="193"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="170"/>
+        <v>74</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D226" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E226">
+        <f t="shared" ref="E226:F226" si="194">E223</f>
+        <v>30</v>
+      </c>
+      <c r="F226">
+        <f t="shared" si="194"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="170"/>
+        <v>75</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D227" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E227">
+        <f t="shared" ref="E227:F227" si="195">E224</f>
+        <v>10</v>
+      </c>
+      <c r="F227">
+        <f t="shared" si="195"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="170"/>
+        <v>75</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D228" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E228">
+        <f t="shared" ref="E228:F228" si="196">E225</f>
+        <v>20</v>
+      </c>
+      <c r="F228">
+        <f t="shared" si="196"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="170"/>
+        <v>75</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D229" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E229">
+        <f t="shared" ref="E229:F229" si="197">E226</f>
+        <v>30</v>
+      </c>
+      <c r="F229">
+        <f t="shared" si="197"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="170"/>
+        <v>76</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D230" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E230">
+        <f t="shared" ref="E230:F230" si="198">E227</f>
+        <v>10</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="198"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="170"/>
+        <v>76</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D231" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E231">
+        <f t="shared" ref="E231:F231" si="199">E228</f>
+        <v>20</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="199"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="170"/>
+        <v>76</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D232" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E232">
+        <f t="shared" ref="E232:F232" si="200">E229</f>
+        <v>30</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="200"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="170"/>
+        <v>77</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D233" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E233">
+        <f t="shared" ref="E233:F233" si="201">E230</f>
+        <v>10</v>
+      </c>
+      <c r="F233">
+        <f t="shared" si="201"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="170"/>
+        <v>77</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D234" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E234">
+        <f t="shared" ref="E234:F234" si="202">E231</f>
+        <v>20</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="202"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="170"/>
+        <v>77</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D235" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E235">
+        <f t="shared" ref="E235:F235" si="203">E232</f>
+        <v>30</v>
+      </c>
+      <c r="F235">
+        <f t="shared" si="203"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="170"/>
+        <v>78</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D236" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E236">
+        <f t="shared" ref="E236:F236" si="204">E233</f>
+        <v>10</v>
+      </c>
+      <c r="F236">
+        <f t="shared" si="204"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="170"/>
+        <v>78</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D237" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E237">
+        <f t="shared" ref="E237:F237" si="205">E234</f>
+        <v>20</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="205"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="170"/>
+        <v>78</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D238" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E238">
+        <f t="shared" ref="E238:F238" si="206">E235</f>
+        <v>30</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="206"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="170"/>
+        <v>79</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D239" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E239">
+        <f t="shared" ref="E239:F239" si="207">E236</f>
+        <v>10</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="207"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="170"/>
+        <v>79</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D240" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E240">
+        <f t="shared" ref="E240:F240" si="208">E237</f>
+        <v>20</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="208"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="170"/>
+        <v>79</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D241" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E241">
+        <f t="shared" ref="E241:F241" si="209">E238</f>
+        <v>30</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="209"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="170"/>
+        <v>80</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D242" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E242">
+        <f t="shared" ref="E242:F242" si="210">E239</f>
+        <v>10</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="210"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="170"/>
+        <v>80</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D243" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E243">
+        <f t="shared" ref="E243:F243" si="211">E240</f>
+        <v>20</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="211"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="170"/>
+        <v>80</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D244" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E244">
+        <f t="shared" ref="E244:F244" si="212">E241</f>
+        <v>30</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="212"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="170"/>
+        <v>81</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D245" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E245">
+        <f t="shared" ref="E245:F245" si="213">E242</f>
+        <v>10</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="213"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="170"/>
+        <v>81</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D246" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E246">
+        <f t="shared" ref="E246:F246" si="214">E243</f>
+        <v>20</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="214"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="170"/>
+        <v>81</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D247" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E247">
+        <f t="shared" ref="E247:F247" si="215">E244</f>
+        <v>30</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="215"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="170"/>
+        <v>82</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D248" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E248">
+        <f t="shared" ref="E248:F248" si="216">E245</f>
+        <v>10</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="216"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="170"/>
+        <v>82</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D249" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E249">
+        <f t="shared" ref="E249:F249" si="217">E246</f>
+        <v>20</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="217"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="170"/>
+        <v>82</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D250" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E250">
+        <f t="shared" ref="E250:F250" si="218">E247</f>
+        <v>30</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="218"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="170"/>
+        <v>83</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D251" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E251">
+        <f t="shared" ref="E251:F251" si="219">E248</f>
+        <v>10</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="219"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="170"/>
+        <v>83</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D252" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E252">
+        <f t="shared" ref="E252:F252" si="220">E249</f>
+        <v>20</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="220"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="170"/>
+        <v>83</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D253" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E253">
+        <f t="shared" ref="E253:F253" si="221">E250</f>
+        <v>30</v>
+      </c>
+      <c r="F253">
+        <f t="shared" si="221"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="170"/>
+        <v>84</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D254" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E254">
+        <f t="shared" ref="E254:F254" si="222">E251</f>
+        <v>10</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="222"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="170"/>
+        <v>84</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D255" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E255">
+        <f t="shared" ref="E255:F255" si="223">E252</f>
+        <v>20</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="223"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <f t="shared" si="170"/>
+        <v>84</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D256" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E256">
+        <f t="shared" ref="E256:F256" si="224">E253</f>
+        <v>30</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="224"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <f t="shared" si="170"/>
+        <v>85</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D257" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E257">
+        <f t="shared" ref="E257:F257" si="225">E254</f>
+        <v>10</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="225"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <f t="shared" si="170"/>
+        <v>85</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D258" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E258">
+        <f t="shared" ref="E258:F258" si="226">E255</f>
+        <v>20</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="226"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <f t="shared" si="170"/>
+        <v>85</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D259" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E259">
+        <f t="shared" ref="E259:F259" si="227">E256</f>
+        <v>30</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="227"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <f t="shared" si="170"/>
+        <v>86</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D260" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E260">
+        <f t="shared" ref="E260:F260" si="228">E257</f>
+        <v>10</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="228"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <f t="shared" si="170"/>
+        <v>86</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D261" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E261">
+        <f t="shared" ref="E261:F261" si="229">E258</f>
+        <v>20</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="229"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <f t="shared" si="170"/>
+        <v>86</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D262" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E262">
+        <f t="shared" ref="E262:F262" si="230">E259</f>
+        <v>30</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="230"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <f t="shared" si="170"/>
+        <v>87</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D263" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E263">
+        <f t="shared" ref="E263:F263" si="231">E260</f>
+        <v>10</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="231"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <f t="shared" si="170"/>
+        <v>87</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D264" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E264">
+        <f t="shared" ref="E264:F264" si="232">E261</f>
+        <v>20</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="232"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="170"/>
+        <v>87</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D265" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E265">
+        <f t="shared" ref="E265:F265" si="233">E262</f>
+        <v>30</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="233"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="170"/>
+        <v>88</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D266" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E266">
+        <f t="shared" ref="E266:F266" si="234">E263</f>
+        <v>10</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="234"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="170"/>
+        <v>88</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D267" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E267">
+        <f t="shared" ref="E267:F267" si="235">E264</f>
+        <v>20</v>
+      </c>
+      <c r="F267">
+        <f t="shared" si="235"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <f t="shared" ref="B268:B331" si="236">B265+1</f>
+        <v>88</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D268" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E268">
+        <f t="shared" ref="E268:F268" si="237">E265</f>
+        <v>30</v>
+      </c>
+      <c r="F268">
+        <f t="shared" si="237"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="236"/>
+        <v>89</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D269" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E269">
+        <f t="shared" ref="E269:F269" si="238">E266</f>
+        <v>10</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="238"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="236"/>
+        <v>89</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D270" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E270">
+        <f t="shared" ref="E270:F270" si="239">E267</f>
+        <v>20</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="239"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="236"/>
+        <v>89</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D271" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E271">
+        <f t="shared" ref="E271:F271" si="240">E268</f>
+        <v>30</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="240"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="236"/>
+        <v>90</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D272" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E272">
+        <f t="shared" ref="E272:F272" si="241">E269</f>
+        <v>10</v>
+      </c>
+      <c r="F272">
+        <f t="shared" si="241"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="236"/>
+        <v>90</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D273" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E273">
+        <f t="shared" ref="E273:F273" si="242">E270</f>
+        <v>20</v>
+      </c>
+      <c r="F273">
+        <f t="shared" si="242"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <f t="shared" si="236"/>
+        <v>90</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D274" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E274">
+        <f t="shared" ref="E274:F274" si="243">E271</f>
+        <v>30</v>
+      </c>
+      <c r="F274">
+        <f t="shared" si="243"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <f t="shared" si="236"/>
+        <v>91</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D275" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E275">
+        <f t="shared" ref="E275:F275" si="244">E272</f>
+        <v>10</v>
+      </c>
+      <c r="F275">
+        <f t="shared" si="244"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <f t="shared" si="236"/>
+        <v>91</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D276" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E276">
+        <f t="shared" ref="E276:F276" si="245">E273</f>
+        <v>20</v>
+      </c>
+      <c r="F276">
+        <f t="shared" si="245"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <f t="shared" si="236"/>
+        <v>91</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D277" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E277">
+        <f t="shared" ref="E277:F277" si="246">E274</f>
+        <v>30</v>
+      </c>
+      <c r="F277">
+        <f t="shared" si="246"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <f t="shared" si="236"/>
+        <v>92</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D278" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E278">
+        <f t="shared" ref="E278:F278" si="247">E275</f>
+        <v>10</v>
+      </c>
+      <c r="F278">
+        <f t="shared" si="247"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <f t="shared" si="236"/>
+        <v>92</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D279" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E279">
+        <f t="shared" ref="E279:F279" si="248">E276</f>
+        <v>20</v>
+      </c>
+      <c r="F279">
+        <f t="shared" si="248"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <f t="shared" si="236"/>
+        <v>92</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="186"/>
+        <v>27</v>
+      </c>
+      <c r="D280" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E280">
+        <f t="shared" ref="E280:F280" si="249">E277</f>
+        <v>30</v>
+      </c>
+      <c r="F280">
+        <f t="shared" si="249"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <f t="shared" si="236"/>
+        <v>93</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="186"/>
+        <v>9</v>
+      </c>
+      <c r="D281" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E281">
+        <f t="shared" ref="E281:F281" si="250">E278</f>
+        <v>10</v>
+      </c>
+      <c r="F281">
+        <f t="shared" si="250"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <f t="shared" si="236"/>
+        <v>93</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="186"/>
+        <v>18</v>
+      </c>
+      <c r="D282" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E282">
+        <f t="shared" ref="E282:F282" si="251">E279</f>
+        <v>20</v>
+      </c>
+      <c r="F282">
+        <f t="shared" si="251"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <f t="shared" si="236"/>
+        <v>93</v>
+      </c>
+      <c r="C283">
+        <f t="shared" ref="C283:C346" si="252">C280</f>
+        <v>27</v>
+      </c>
+      <c r="D283" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E283">
+        <f t="shared" ref="E283:F283" si="253">E280</f>
+        <v>30</v>
+      </c>
+      <c r="F283">
+        <f t="shared" si="253"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <f t="shared" si="236"/>
+        <v>94</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D284" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E284">
+        <f t="shared" ref="E284:F284" si="254">E281</f>
+        <v>10</v>
+      </c>
+      <c r="F284">
+        <f t="shared" si="254"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <f t="shared" si="236"/>
+        <v>94</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D285" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E285">
+        <f t="shared" ref="E285:F285" si="255">E282</f>
+        <v>20</v>
+      </c>
+      <c r="F285">
+        <f t="shared" si="255"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <f t="shared" si="236"/>
+        <v>94</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D286" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E286">
+        <f t="shared" ref="E286:F286" si="256">E283</f>
+        <v>30</v>
+      </c>
+      <c r="F286">
+        <f t="shared" si="256"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <f t="shared" si="236"/>
+        <v>95</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D287" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E287">
+        <f t="shared" ref="E287:F287" si="257">E284</f>
+        <v>10</v>
+      </c>
+      <c r="F287">
+        <f t="shared" si="257"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <f t="shared" si="236"/>
+        <v>95</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D288" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E288">
+        <f t="shared" ref="E288:F288" si="258">E285</f>
+        <v>20</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="258"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <f t="shared" si="236"/>
+        <v>95</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D289" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E289">
+        <f t="shared" ref="E289:F289" si="259">E286</f>
+        <v>30</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="259"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <f t="shared" si="236"/>
+        <v>96</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D290" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E290">
+        <f t="shared" ref="E290:F290" si="260">E287</f>
+        <v>10</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="260"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <f t="shared" si="236"/>
+        <v>96</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D291" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E291">
+        <f t="shared" ref="E291:F291" si="261">E288</f>
+        <v>20</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="261"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <f t="shared" si="236"/>
+        <v>96</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D292" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E292">
+        <f t="shared" ref="E292:F292" si="262">E289</f>
+        <v>30</v>
+      </c>
+      <c r="F292">
+        <f t="shared" si="262"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <f t="shared" si="236"/>
+        <v>97</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D293" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E293">
+        <f t="shared" ref="E293:F293" si="263">E290</f>
+        <v>10</v>
+      </c>
+      <c r="F293">
+        <f t="shared" si="263"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <f t="shared" si="236"/>
+        <v>97</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D294" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E294">
+        <f t="shared" ref="E294:F294" si="264">E291</f>
+        <v>20</v>
+      </c>
+      <c r="F294">
+        <f t="shared" si="264"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <f t="shared" si="236"/>
+        <v>97</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D295" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E295">
+        <f t="shared" ref="E295:F295" si="265">E292</f>
+        <v>30</v>
+      </c>
+      <c r="F295">
+        <f t="shared" si="265"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <f t="shared" si="236"/>
+        <v>98</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D296" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E296">
+        <f t="shared" ref="E296:F296" si="266">E293</f>
+        <v>10</v>
+      </c>
+      <c r="F296">
+        <f t="shared" si="266"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <f t="shared" si="236"/>
+        <v>98</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D297" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E297">
+        <f t="shared" ref="E297:F297" si="267">E294</f>
+        <v>20</v>
+      </c>
+      <c r="F297">
+        <f t="shared" si="267"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <f t="shared" si="236"/>
+        <v>98</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D298" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E298">
+        <f t="shared" ref="E298:F298" si="268">E295</f>
+        <v>30</v>
+      </c>
+      <c r="F298">
+        <f t="shared" si="268"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <f t="shared" si="236"/>
+        <v>99</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D299" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E299">
+        <f t="shared" ref="E299:F299" si="269">E296</f>
+        <v>10</v>
+      </c>
+      <c r="F299">
+        <f t="shared" si="269"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <f t="shared" si="236"/>
+        <v>99</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D300" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E300">
+        <f t="shared" ref="E300:F300" si="270">E297</f>
+        <v>20</v>
+      </c>
+      <c r="F300">
+        <f t="shared" si="270"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <f t="shared" si="236"/>
+        <v>99</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D301" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E301">
+        <f t="shared" ref="E301:F301" si="271">E298</f>
+        <v>30</v>
+      </c>
+      <c r="F301">
+        <f t="shared" si="271"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <f t="shared" si="236"/>
+        <v>100</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D302" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E302">
+        <f t="shared" ref="E302:F302" si="272">E299</f>
+        <v>10</v>
+      </c>
+      <c r="F302">
+        <f t="shared" si="272"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <f t="shared" si="236"/>
+        <v>100</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D303" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E303">
+        <f t="shared" ref="E303:F303" si="273">E300</f>
+        <v>20</v>
+      </c>
+      <c r="F303">
+        <f t="shared" si="273"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <f t="shared" si="236"/>
+        <v>100</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D304" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E304">
+        <f t="shared" ref="E304:F304" si="274">E301</f>
+        <v>30</v>
+      </c>
+      <c r="F304">
+        <f t="shared" si="274"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <f t="shared" si="236"/>
+        <v>101</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D305" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E305">
+        <f t="shared" ref="E305:F305" si="275">E302</f>
+        <v>10</v>
+      </c>
+      <c r="F305">
+        <f t="shared" si="275"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <f t="shared" si="236"/>
+        <v>101</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D306" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E306">
+        <f t="shared" ref="E306:F306" si="276">E303</f>
+        <v>20</v>
+      </c>
+      <c r="F306">
+        <f t="shared" si="276"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <f t="shared" si="236"/>
+        <v>101</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D307" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E307">
+        <f t="shared" ref="E307:F307" si="277">E304</f>
+        <v>30</v>
+      </c>
+      <c r="F307">
+        <f t="shared" si="277"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <f t="shared" si="236"/>
+        <v>102</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D308" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E308">
+        <f t="shared" ref="E308:F308" si="278">E305</f>
+        <v>10</v>
+      </c>
+      <c r="F308">
+        <f t="shared" si="278"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <f t="shared" si="236"/>
+        <v>102</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D309" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E309">
+        <f t="shared" ref="E309:F309" si="279">E306</f>
+        <v>20</v>
+      </c>
+      <c r="F309">
+        <f t="shared" si="279"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <f t="shared" si="236"/>
+        <v>102</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D310" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E310">
+        <f t="shared" ref="E310:F310" si="280">E307</f>
+        <v>30</v>
+      </c>
+      <c r="F310">
+        <f t="shared" si="280"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <f t="shared" si="236"/>
+        <v>103</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D311" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E311">
+        <f t="shared" ref="E311:F311" si="281">E308</f>
+        <v>10</v>
+      </c>
+      <c r="F311">
+        <f t="shared" si="281"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <f t="shared" si="236"/>
+        <v>103</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D312" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E312">
+        <f t="shared" ref="E312:F312" si="282">E309</f>
+        <v>20</v>
+      </c>
+      <c r="F312">
+        <f t="shared" si="282"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <f t="shared" si="236"/>
+        <v>103</v>
+      </c>
+      <c r="C313">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D313" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E313">
+        <f t="shared" ref="E313:F313" si="283">E310</f>
+        <v>30</v>
+      </c>
+      <c r="F313">
+        <f t="shared" si="283"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <f t="shared" si="236"/>
+        <v>104</v>
+      </c>
+      <c r="C314">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D314" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E314">
+        <f t="shared" ref="E314:F314" si="284">E311</f>
+        <v>10</v>
+      </c>
+      <c r="F314">
+        <f t="shared" si="284"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <f t="shared" si="236"/>
+        <v>104</v>
+      </c>
+      <c r="C315">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D315" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E315">
+        <f t="shared" ref="E315:F315" si="285">E312</f>
+        <v>20</v>
+      </c>
+      <c r="F315">
+        <f t="shared" si="285"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <f t="shared" si="236"/>
+        <v>104</v>
+      </c>
+      <c r="C316">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D316" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E316">
+        <f t="shared" ref="E316:F316" si="286">E313</f>
+        <v>30</v>
+      </c>
+      <c r="F316">
+        <f t="shared" si="286"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <f t="shared" si="236"/>
+        <v>105</v>
+      </c>
+      <c r="C317">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D317" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E317">
+        <f t="shared" ref="E317:F317" si="287">E314</f>
+        <v>10</v>
+      </c>
+      <c r="F317">
+        <f t="shared" si="287"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <f t="shared" si="236"/>
+        <v>105</v>
+      </c>
+      <c r="C318">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D318" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E318">
+        <f t="shared" ref="E318:F318" si="288">E315</f>
+        <v>20</v>
+      </c>
+      <c r="F318">
+        <f t="shared" si="288"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <f t="shared" si="236"/>
+        <v>105</v>
+      </c>
+      <c r="C319">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D319" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E319">
+        <f t="shared" ref="E319:F319" si="289">E316</f>
+        <v>30</v>
+      </c>
+      <c r="F319">
+        <f t="shared" si="289"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <f t="shared" si="236"/>
+        <v>106</v>
+      </c>
+      <c r="C320">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D320" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E320">
+        <f t="shared" ref="E320:F320" si="290">E317</f>
+        <v>10</v>
+      </c>
+      <c r="F320">
+        <f t="shared" si="290"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <f t="shared" si="236"/>
+        <v>106</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D321" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E321">
+        <f t="shared" ref="E321:F321" si="291">E318</f>
+        <v>20</v>
+      </c>
+      <c r="F321">
+        <f t="shared" si="291"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <f t="shared" si="236"/>
+        <v>106</v>
+      </c>
+      <c r="C322">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D322" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E322">
+        <f t="shared" ref="E322:F322" si="292">E319</f>
+        <v>30</v>
+      </c>
+      <c r="F322">
+        <f t="shared" si="292"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <f t="shared" si="236"/>
+        <v>107</v>
+      </c>
+      <c r="C323">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D323" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E323">
+        <f t="shared" ref="E323:F323" si="293">E320</f>
+        <v>10</v>
+      </c>
+      <c r="F323">
+        <f t="shared" si="293"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <f t="shared" si="236"/>
+        <v>107</v>
+      </c>
+      <c r="C324">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D324" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E324">
+        <f t="shared" ref="E324:F324" si="294">E321</f>
+        <v>20</v>
+      </c>
+      <c r="F324">
+        <f t="shared" si="294"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <f t="shared" si="236"/>
+        <v>107</v>
+      </c>
+      <c r="C325">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D325" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E325">
+        <f t="shared" ref="E325:F325" si="295">E322</f>
+        <v>30</v>
+      </c>
+      <c r="F325">
+        <f t="shared" si="295"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <f t="shared" si="236"/>
+        <v>108</v>
+      </c>
+      <c r="C326">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D326" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E326">
+        <f t="shared" ref="E326:F326" si="296">E323</f>
+        <v>10</v>
+      </c>
+      <c r="F326">
+        <f t="shared" si="296"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <f t="shared" si="236"/>
+        <v>108</v>
+      </c>
+      <c r="C327">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D327" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E327">
+        <f t="shared" ref="E327:F327" si="297">E324</f>
+        <v>20</v>
+      </c>
+      <c r="F327">
+        <f t="shared" si="297"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <f t="shared" si="236"/>
+        <v>108</v>
+      </c>
+      <c r="C328">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D328" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E328">
+        <f t="shared" ref="E328:F328" si="298">E325</f>
+        <v>30</v>
+      </c>
+      <c r="F328">
+        <f t="shared" si="298"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <f t="shared" si="236"/>
+        <v>109</v>
+      </c>
+      <c r="C329">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D329" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E329">
+        <f t="shared" ref="E329:F329" si="299">E326</f>
+        <v>10</v>
+      </c>
+      <c r="F329">
+        <f t="shared" si="299"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <f t="shared" si="236"/>
+        <v>109</v>
+      </c>
+      <c r="C330">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D330" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E330">
+        <f t="shared" ref="E330:F330" si="300">E327</f>
+        <v>20</v>
+      </c>
+      <c r="F330">
+        <f t="shared" si="300"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <f t="shared" si="236"/>
+        <v>109</v>
+      </c>
+      <c r="C331">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D331" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E331">
+        <f t="shared" ref="E331:F331" si="301">E328</f>
+        <v>30</v>
+      </c>
+      <c r="F331">
+        <f t="shared" si="301"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <f t="shared" ref="B332:B370" si="302">B329+1</f>
+        <v>110</v>
+      </c>
+      <c r="C332">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D332" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E332">
+        <f t="shared" ref="E332:F332" si="303">E329</f>
+        <v>10</v>
+      </c>
+      <c r="F332">
+        <f t="shared" si="303"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <f t="shared" si="302"/>
+        <v>110</v>
+      </c>
+      <c r="C333">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D333" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E333">
+        <f t="shared" ref="E333:F333" si="304">E330</f>
+        <v>20</v>
+      </c>
+      <c r="F333">
+        <f t="shared" si="304"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <f t="shared" si="302"/>
+        <v>110</v>
+      </c>
+      <c r="C334">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D334" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E334">
+        <f t="shared" ref="E334:F334" si="305">E331</f>
+        <v>30</v>
+      </c>
+      <c r="F334">
+        <f t="shared" si="305"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <f t="shared" si="302"/>
+        <v>111</v>
+      </c>
+      <c r="C335">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D335" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E335">
+        <f t="shared" ref="E335:F335" si="306">E332</f>
+        <v>10</v>
+      </c>
+      <c r="F335">
+        <f t="shared" si="306"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <f t="shared" si="302"/>
+        <v>111</v>
+      </c>
+      <c r="C336">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D336" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E336">
+        <f t="shared" ref="E336:F336" si="307">E333</f>
+        <v>20</v>
+      </c>
+      <c r="F336">
+        <f t="shared" si="307"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <f t="shared" si="302"/>
+        <v>111</v>
+      </c>
+      <c r="C337">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D337" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E337">
+        <f t="shared" ref="E337:F337" si="308">E334</f>
+        <v>30</v>
+      </c>
+      <c r="F337">
+        <f t="shared" si="308"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <f t="shared" si="302"/>
+        <v>112</v>
+      </c>
+      <c r="C338">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D338" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E338">
+        <f t="shared" ref="E338:F338" si="309">E335</f>
+        <v>10</v>
+      </c>
+      <c r="F338">
+        <f t="shared" si="309"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <f t="shared" si="302"/>
+        <v>112</v>
+      </c>
+      <c r="C339">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D339" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E339">
+        <f t="shared" ref="E339:F339" si="310">E336</f>
+        <v>20</v>
+      </c>
+      <c r="F339">
+        <f t="shared" si="310"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <f t="shared" si="302"/>
+        <v>112</v>
+      </c>
+      <c r="C340">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D340" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E340">
+        <f t="shared" ref="E340:F340" si="311">E337</f>
+        <v>30</v>
+      </c>
+      <c r="F340">
+        <f t="shared" si="311"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <f t="shared" si="302"/>
+        <v>113</v>
+      </c>
+      <c r="C341">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D341" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E341">
+        <f t="shared" ref="E341:F341" si="312">E338</f>
+        <v>10</v>
+      </c>
+      <c r="F341">
+        <f t="shared" si="312"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <f t="shared" si="302"/>
+        <v>113</v>
+      </c>
+      <c r="C342">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D342" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E342">
+        <f t="shared" ref="E342:F342" si="313">E339</f>
+        <v>20</v>
+      </c>
+      <c r="F342">
+        <f t="shared" si="313"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <f t="shared" si="302"/>
+        <v>113</v>
+      </c>
+      <c r="C343">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D343" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E343">
+        <f t="shared" ref="E343:F343" si="314">E340</f>
+        <v>30</v>
+      </c>
+      <c r="F343">
+        <f t="shared" si="314"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <f t="shared" si="302"/>
+        <v>114</v>
+      </c>
+      <c r="C344">
+        <f t="shared" si="252"/>
+        <v>9</v>
+      </c>
+      <c r="D344" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E344">
+        <f t="shared" ref="E344:F344" si="315">E341</f>
+        <v>10</v>
+      </c>
+      <c r="F344">
+        <f t="shared" si="315"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <f t="shared" si="302"/>
+        <v>114</v>
+      </c>
+      <c r="C345">
+        <f t="shared" si="252"/>
+        <v>18</v>
+      </c>
+      <c r="D345" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E345">
+        <f t="shared" ref="E345:F345" si="316">E342</f>
+        <v>20</v>
+      </c>
+      <c r="F345">
+        <f t="shared" si="316"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <f t="shared" si="302"/>
+        <v>114</v>
+      </c>
+      <c r="C346">
+        <f t="shared" si="252"/>
+        <v>27</v>
+      </c>
+      <c r="D346" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E346">
+        <f t="shared" ref="E346:F346" si="317">E343</f>
+        <v>30</v>
+      </c>
+      <c r="F346">
+        <f t="shared" si="317"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <f t="shared" si="302"/>
+        <v>115</v>
+      </c>
+      <c r="C347">
+        <f t="shared" ref="C347:C370" si="318">C344</f>
+        <v>9</v>
+      </c>
+      <c r="D347" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E347">
+        <f t="shared" ref="E347:F347" si="319">E344</f>
+        <v>10</v>
+      </c>
+      <c r="F347">
+        <f t="shared" si="319"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <f t="shared" si="302"/>
+        <v>115</v>
+      </c>
+      <c r="C348">
+        <f t="shared" si="318"/>
+        <v>18</v>
+      </c>
+      <c r="D348" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E348">
+        <f t="shared" ref="E348:F348" si="320">E345</f>
+        <v>20</v>
+      </c>
+      <c r="F348">
+        <f t="shared" si="320"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <f t="shared" si="302"/>
+        <v>115</v>
+      </c>
+      <c r="C349">
+        <f t="shared" si="318"/>
+        <v>27</v>
+      </c>
+      <c r="D349" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E349">
+        <f t="shared" ref="E349:F349" si="321">E346</f>
+        <v>30</v>
+      </c>
+      <c r="F349">
+        <f t="shared" si="321"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <f t="shared" si="302"/>
+        <v>116</v>
+      </c>
+      <c r="C350">
+        <f t="shared" si="318"/>
+        <v>9</v>
+      </c>
+      <c r="D350" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E350">
+        <f t="shared" ref="E350:F350" si="322">E347</f>
+        <v>10</v>
+      </c>
+      <c r="F350">
+        <f t="shared" si="322"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <f t="shared" si="302"/>
+        <v>116</v>
+      </c>
+      <c r="C351">
+        <f t="shared" si="318"/>
+        <v>18</v>
+      </c>
+      <c r="D351" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E351">
+        <f t="shared" ref="E351:F351" si="323">E348</f>
+        <v>20</v>
+      </c>
+      <c r="F351">
+        <f t="shared" si="323"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <f t="shared" si="302"/>
+        <v>116</v>
+      </c>
+      <c r="C352">
+        <f t="shared" si="318"/>
+        <v>27</v>
+      </c>
+      <c r="D352" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E352">
+        <f t="shared" ref="E352:F352" si="324">E349</f>
+        <v>30</v>
+      </c>
+      <c r="F352">
+        <f t="shared" si="324"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <f t="shared" si="302"/>
+        <v>117</v>
+      </c>
+      <c r="C353">
+        <f t="shared" si="318"/>
+        <v>9</v>
+      </c>
+      <c r="D353" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E353">
+        <f t="shared" ref="E353:F353" si="325">E350</f>
+        <v>10</v>
+      </c>
+      <c r="F353">
+        <f t="shared" si="325"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <f t="shared" si="302"/>
+        <v>117</v>
+      </c>
+      <c r="C354">
+        <f t="shared" si="318"/>
+        <v>18</v>
+      </c>
+      <c r="D354" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E354">
+        <f t="shared" ref="E354:F354" si="326">E351</f>
+        <v>20</v>
+      </c>
+      <c r="F354">
+        <f t="shared" si="326"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>353</v>
+      </c>
+      <c r="B355">
+        <f t="shared" si="302"/>
+        <v>117</v>
+      </c>
+      <c r="C355">
+        <f t="shared" si="318"/>
+        <v>27</v>
+      </c>
+      <c r="D355" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E355">
+        <f t="shared" ref="E355:F355" si="327">E352</f>
+        <v>30</v>
+      </c>
+      <c r="F355">
+        <f t="shared" si="327"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>354</v>
+      </c>
+      <c r="B356">
+        <f t="shared" si="302"/>
+        <v>118</v>
+      </c>
+      <c r="C356">
+        <f t="shared" si="318"/>
+        <v>9</v>
+      </c>
+      <c r="D356" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E356">
+        <f t="shared" ref="E356:F356" si="328">E353</f>
+        <v>10</v>
+      </c>
+      <c r="F356">
+        <f t="shared" si="328"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>355</v>
+      </c>
+      <c r="B357">
+        <f t="shared" si="302"/>
+        <v>118</v>
+      </c>
+      <c r="C357">
+        <f t="shared" si="318"/>
+        <v>18</v>
+      </c>
+      <c r="D357" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E357">
+        <f t="shared" ref="E357:F357" si="329">E354</f>
+        <v>20</v>
+      </c>
+      <c r="F357">
+        <f t="shared" si="329"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>356</v>
+      </c>
+      <c r="B358">
+        <f t="shared" si="302"/>
+        <v>118</v>
+      </c>
+      <c r="C358">
+        <f t="shared" si="318"/>
+        <v>27</v>
+      </c>
+      <c r="D358" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E358">
+        <f t="shared" ref="E358:F358" si="330">E355</f>
+        <v>30</v>
+      </c>
+      <c r="F358">
+        <f t="shared" si="330"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>357</v>
+      </c>
+      <c r="B359">
+        <f t="shared" si="302"/>
+        <v>119</v>
+      </c>
+      <c r="C359">
+        <f t="shared" si="318"/>
+        <v>9</v>
+      </c>
+      <c r="D359" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E359">
+        <f t="shared" ref="E359:F359" si="331">E356</f>
+        <v>10</v>
+      </c>
+      <c r="F359">
+        <f t="shared" si="331"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>358</v>
+      </c>
+      <c r="B360">
+        <f t="shared" si="302"/>
+        <v>119</v>
+      </c>
+      <c r="C360">
+        <f t="shared" si="318"/>
+        <v>18</v>
+      </c>
+      <c r="D360" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E360">
+        <f t="shared" ref="E360:F360" si="332">E357</f>
+        <v>20</v>
+      </c>
+      <c r="F360">
+        <f t="shared" si="332"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>359</v>
+      </c>
+      <c r="B361">
+        <f t="shared" si="302"/>
+        <v>119</v>
+      </c>
+      <c r="C361">
+        <f t="shared" si="318"/>
+        <v>27</v>
+      </c>
+      <c r="D361" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E361">
+        <f t="shared" ref="E361:F361" si="333">E358</f>
+        <v>30</v>
+      </c>
+      <c r="F361">
+        <f t="shared" si="333"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>360</v>
+      </c>
+      <c r="B362">
+        <f t="shared" si="302"/>
+        <v>120</v>
+      </c>
+      <c r="C362">
+        <f t="shared" si="318"/>
+        <v>9</v>
+      </c>
+      <c r="D362" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E362">
+        <f t="shared" ref="E362:F362" si="334">E359</f>
+        <v>10</v>
+      </c>
+      <c r="F362">
+        <f t="shared" si="334"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>361</v>
+      </c>
+      <c r="B363">
+        <f t="shared" si="302"/>
+        <v>120</v>
+      </c>
+      <c r="C363">
+        <f t="shared" si="318"/>
+        <v>18</v>
+      </c>
+      <c r="D363" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E363">
+        <f t="shared" ref="E363:F363" si="335">E360</f>
+        <v>20</v>
+      </c>
+      <c r="F363">
+        <f t="shared" si="335"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>362</v>
+      </c>
+      <c r="B364">
+        <f t="shared" si="302"/>
+        <v>120</v>
+      </c>
+      <c r="C364">
+        <f t="shared" si="318"/>
+        <v>27</v>
+      </c>
+      <c r="D364" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E364">
+        <f t="shared" ref="E364:F364" si="336">E361</f>
+        <v>30</v>
+      </c>
+      <c r="F364">
+        <f t="shared" si="336"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>363</v>
+      </c>
+      <c r="B365">
+        <f t="shared" si="302"/>
+        <v>121</v>
+      </c>
+      <c r="C365">
+        <f t="shared" si="318"/>
+        <v>9</v>
+      </c>
+      <c r="D365" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E365">
+        <f t="shared" ref="E365:F365" si="337">E362</f>
+        <v>10</v>
+      </c>
+      <c r="F365">
+        <f t="shared" si="337"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>364</v>
+      </c>
+      <c r="B366">
+        <f t="shared" si="302"/>
+        <v>121</v>
+      </c>
+      <c r="C366">
+        <f t="shared" si="318"/>
+        <v>18</v>
+      </c>
+      <c r="D366" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E366">
+        <f t="shared" ref="E366:F366" si="338">E363</f>
+        <v>20</v>
+      </c>
+      <c r="F366">
+        <f t="shared" si="338"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>365</v>
+      </c>
+      <c r="B367">
+        <f t="shared" si="302"/>
+        <v>121</v>
+      </c>
+      <c r="C367">
+        <f t="shared" si="318"/>
+        <v>27</v>
+      </c>
+      <c r="D367" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E367">
+        <f t="shared" ref="E367:F367" si="339">E364</f>
+        <v>30</v>
+      </c>
+      <c r="F367">
+        <f t="shared" si="339"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>366</v>
+      </c>
+      <c r="B368">
+        <f t="shared" si="302"/>
+        <v>122</v>
+      </c>
+      <c r="C368">
+        <f t="shared" si="318"/>
+        <v>9</v>
+      </c>
+      <c r="D368" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E368">
+        <f t="shared" ref="E368:F368" si="340">E365</f>
+        <v>10</v>
+      </c>
+      <c r="F368">
+        <f t="shared" si="340"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>367</v>
+      </c>
+      <c r="B369">
+        <f t="shared" si="302"/>
+        <v>122</v>
+      </c>
+      <c r="C369">
+        <f t="shared" si="318"/>
+        <v>18</v>
+      </c>
+      <c r="D369" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E369">
+        <f t="shared" ref="E369:F369" si="341">E366</f>
+        <v>20</v>
+      </c>
+      <c r="F369">
+        <f t="shared" si="341"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>368</v>
+      </c>
+      <c r="B370">
+        <f t="shared" si="302"/>
+        <v>122</v>
+      </c>
+      <c r="C370">
+        <f t="shared" si="318"/>
+        <v>27</v>
+      </c>
+      <c r="D370" s="1">
+        <v>9039</v>
+      </c>
+      <c r="E370">
+        <f t="shared" ref="E370:F370" si="342">E367</f>
+        <v>30</v>
+      </c>
+      <c r="F370">
+        <f t="shared" si="342"/>
         <v>2</v>
       </c>
     </row>
